--- a/data/income_statement/3digits/total/743_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/743_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>743-Translation and interpretation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>743-Translation and interpretation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,20 +841,25 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>73813.99412999999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>86766.79574</v>
+        <v>86766.79574000002</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>110240.48191</v>
@@ -965,28 +871,33 @@
         <v>161482.42597</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>180116.61686</v>
+        <v>180161.7797</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>187815.72295</v>
+        <v>194458.2959</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>199816.01235</v>
+        <v>199834.25218</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>248929.08528</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>288689.74954</v>
+        <v>289303.33104</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>307035.48385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>321411.69999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>348400.78</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>67578.29503000001</v>
@@ -995,7 +906,7 @@
         <v>79703.98234</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>98903.51847999998</v>
+        <v>98903.51848</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>119865.02074</v>
@@ -1004,28 +915,33 @@
         <v>146458.68724</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>152334.60847</v>
+        <v>152379.77131</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>159683.87282</v>
+        <v>165483.1873</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>170394.77026</v>
+        <v>170409.66009</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>203433.56526</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>218664.99491</v>
+        <v>219268.12922</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>236269.35917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>242725.95635</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>269114.548</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>4943.55314</v>
@@ -1046,7 +962,7 @@
         <v>23296.62918</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>23611.18078</v>
+        <v>24427.53919</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>26030.9054</v>
@@ -1055,16 +971,21 @@
         <v>39175.8321</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>67564.27620000001</v>
+        <v>67573.32586</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>67677.52443999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>75468.08615999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>76424.594</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1292.14596</v>
@@ -1085,25 +1006,30 @@
         <v>4485.37921</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4520.669349999999</v>
+        <v>4547.56941</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3390.33669</v>
+        <v>3393.68669</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>6319.68792</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2460.47843</v>
+        <v>2461.87596</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3088.60024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3217.65748</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2861.638</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>363.6892099999999</v>
@@ -1121,13 +1047,13 @@
         <v>618.2841799999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>493.55681</v>
+        <v>493.5568099999999</v>
       </c>
       <c r="I9" s="47" t="n">
         <v>317.98428</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>687.3664200000001</v>
+        <v>687.3664199999999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>327.41608</v>
@@ -1136,13 +1062,18 @@
         <v>1313.66413</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>587.56409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>600.32917</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1665.917</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>285.42161</v>
@@ -1160,7 +1091,7 @@
         <v>600.2196799999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>484.5505899999999</v>
+        <v>484.55059</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>295.8343399999999</v>
@@ -1175,13 +1106,18 @@
         <v>1304.29581</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>561.26765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>574.03273</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1636.007</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>55.06468</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>5.71021</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>5.947</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>23.20292</v>
@@ -1238,7 +1179,7 @@
         <v>9.433440000000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4.039040000000001</v>
+        <v>4.03904</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>8.41878</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>20.58623</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>23.963</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>73450.30492</v>
@@ -1277,40 +1223,45 @@
         <v>160864.14179</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>179623.06005</v>
+        <v>179668.22289</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>187497.73867</v>
+        <v>194140.31162</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>199128.64593</v>
+        <v>199146.88576</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>248601.6692</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>287376.0854099999</v>
+        <v>287989.66691</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>306447.91976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>320811.37082</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>346734.863</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>42763.25638000001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>52297.53729000001</v>
+        <v>52297.53729</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>68908.20534999999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>84882.70833000001</v>
+        <v>84882.70832999999</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>102271.77613</v>
@@ -1319,25 +1270,30 @@
         <v>110677.23303</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>113693.67346</v>
+        <v>118903.06958</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>120840.48936</v>
+        <v>120848.18253</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>156751.23675</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>176483.44097</v>
+        <v>177210.29295</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>202633.16247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>208288.05194</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>204520.524</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>128.90833</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>1375.18203</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>539.657</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>6100.068990000001</v>
@@ -1397,10 +1358,10 @@
         <v>4661.01778</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>9408.197099999999</v>
+        <v>13408.61928</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>10291.16408</v>
+        <v>10298.85725</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>16311.7193</v>
@@ -1409,19 +1370,24 @@
         <v>7090.44706</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>6216.72842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>6242.029300000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>12207.722</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>36499.01586</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>48383.57494999999</v>
+        <v>48383.57495</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>64533.29835</v>
@@ -1436,7 +1402,7 @@
         <v>105424.89123</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>103213.67174</v>
+        <v>104422.64568</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>110084.17042</v>
@@ -1445,16 +1411,21 @@
         <v>138264.59217</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>167704.38338</v>
+        <v>168431.23536</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>193976.47233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>199606.06092</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>190886.611</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>35.2632</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>1064.77969</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>886.534</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>30687.04854</v>
@@ -1505,34 +1481,39 @@
         <v>40895.32201</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>45580.3987</v>
+        <v>45580.39870000001</v>
       </c>
       <c r="G19" s="47" t="n">
         <v>58592.36566</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>68945.82702</v>
+        <v>68990.98986</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>73804.06521000002</v>
+        <v>75237.24204</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>78288.15657000001</v>
+        <v>78298.70322999998</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>91850.43244999999</v>
+        <v>91850.43245000001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>110892.64444</v>
+        <v>110779.37396</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>103814.75729</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>112523.31888</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>142214.339</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>23432.30986</v>
@@ -1550,28 +1531,33 @@
         <v>43199.14443</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>50859.59555000001</v>
+        <v>50888.17862000001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>52007.39118999999</v>
+        <v>53128.72369</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>59455.38427</v>
+        <v>59466.69420000001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>65506.55001000001</v>
+        <v>65506.55001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>76717.32485</v>
+        <v>77048.50843999999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>86464.61643000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>95516.20705</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>108542.536</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>11.02725</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>2380.39573</v>
@@ -1628,28 +1619,33 @@
         <v>3109.95956</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3291.97319</v>
+        <v>3295.84033</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>4725.98593</v>
+        <v>4775.10081</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>6245.46255</v>
+        <v>6246.35055</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>6300.619779999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>5402.325220000001</v>
+        <v>5423.305530000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>7276.23648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>7343.09643</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3870.55</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>21040.88688</v>
@@ -1667,28 +1663,33 @@
         <v>40033.99336</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>47565.0943</v>
+        <v>47589.81023</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>47281.40526000001</v>
+        <v>48353.62288</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>53170.05512</v>
+        <v>53180.47704999999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>59179.35791</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>71304.31984</v>
+        <v>71614.52312</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>79188.32995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>88173.06062</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>104671.986</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>7254.738679999999</v>
@@ -1706,28 +1707,33 @@
         <v>15393.22123</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>18086.23147</v>
+        <v>18102.81124</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>21796.67402</v>
+        <v>22108.51835</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>18832.7723</v>
+        <v>18832.00903</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>26343.88244</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>34175.31959</v>
+        <v>33730.86552</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>17350.14086</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17007.11183</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>33671.803</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>5860.56167</v>
@@ -1748,25 +1754,30 @@
         <v>1495.30522</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2057.73543</v>
+        <v>2116.89158</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2228.56094</v>
+        <v>2232.63834</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2495.44032</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>14555.33208</v>
+        <v>14556.73024</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7095.42354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7528.176769999999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>15075.053</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>102.38107</v>
@@ -1865,10 +1886,10 @@
         <v>302.65759</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>477.19365</v>
+        <v>477.54905</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>363.43843</v>
+        <v>363.78343</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>513.58537</v>
@@ -1877,13 +1898,18 @@
         <v>1208.99559</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1149.70827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1593.39087</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1437.252</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>13.31616</v>
@@ -1916,13 +1942,18 @@
         <v>0.66226</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>17.74474</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>17.74503</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>106.766</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>17.91304</v>
@@ -1982,7 +2018,7 @@
         <v>42.01362</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>27.9239</v>
+        <v>28.12987</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>40.66509</v>
@@ -1996,17 +2032,22 @@
       <c r="M31" s="48" t="n">
         <v>119.56205</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>599.588</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>684.7121800000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>789.98034</v>
+        <v>789.9803400000001</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>719.04962</v>
@@ -2018,10 +2059,10 @@
         <v>673.16487</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>724.9921699999999</v>
+        <v>724.99217</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1228.70986</v>
+        <v>1285.84745</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>1399.26617</v>
@@ -2030,16 +2071,21 @@
         <v>1458.4126</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>12462.80312</v>
+        <v>12464.07184</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4720.9836</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4722.47002</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>11516.067</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.01103</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5042.228190000001</v>
+        <v>5042.22819</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>29100.21583</v>
@@ -2138,28 +2194,33 @@
         <v>392.86821</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>267.79805</v>
+        <v>269.25524</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>329.33809</v>
+        <v>333.07049</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>461.97437</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>672.36324</v>
+        <v>672.49268</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1087.42488</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1075.0088</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1413.715</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5562.38143</v>
+        <v>5562.381429999999</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>29773.60029</v>
@@ -2168,16 +2229,16 @@
         <v>1624.96784</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>476.32855</v>
+        <v>476.3285500000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>681.8631499999999</v>
+        <v>681.86315</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>2040.9753</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2158.61529</v>
+        <v>2175.98605</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>963.44196</v>
@@ -2186,16 +2247,21 @@
         <v>1231.44388</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7244.2129</v>
+        <v>7245.51113</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2730.39075</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2730.8728</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4834.994</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>21.25226</v>
@@ -2216,7 +2282,7 @@
         <v>89.31697</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>95.31957000000001</v>
+        <v>95.90547000000001</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>53.49219</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>93.56977000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>50.278</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>30.12093</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>220.60576</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>95.779</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>8.58356</v>
@@ -2294,7 +2370,7 @@
         <v>1.24264</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0.06695999999999999</v>
+        <v>0.46421</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>7</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>461.33593</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>505.9919200000001</v>
@@ -2333,25 +2414,30 @@
         <v>1581.7896</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1082.00708</v>
+        <v>1098.39337</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>790.7954</v>
+        <v>790.7953999999999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1107.53988</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5811.86953</v>
+        <v>5812.764700000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1887.03238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1887.51411</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>4371.803</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4996.432760000001</v>
+        <v>4996.43276</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>29133.77699</v>
@@ -2447,10 +2543,10 @@
         <v>131.55004</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>341.6306799999999</v>
+        <v>341.63068</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>857.90055</v>
+        <v>857.90187</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>54.08534</v>
@@ -2459,28 +2555,33 @@
         <v>53.74597</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>74.05110000000001</v>
+        <v>74.45416</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>67.84691000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>67.84723</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>314.259</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>560.56818</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>597.6253399999999</v>
+        <v>597.6253400000001</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>649.72714</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>876.76616</v>
+        <v>876.7661599999999</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>1255.8693</v>
@@ -2489,25 +2590,30 @@
         <v>1793.88737</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2319.79923</v>
+        <v>2333.30025</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1953.45548</v>
+        <v>1953.41958</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2853.42398</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2928.90679</v>
+        <v>2929.13361</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3896.62019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3916.1736</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4004.772</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>521.97434</v>
@@ -2519,7 +2625,7 @@
         <v>525.96786</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>699.44366</v>
+        <v>699.4436599999999</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>1146.42908</v>
@@ -2528,25 +2634,30 @@
         <v>1719.54765</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2278.30624</v>
+        <v>2291.80726</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1929.75433</v>
+        <v>1929.71843</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2640.97181</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2897.59258</v>
+        <v>2897.8194</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3856.636919999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3876.19033</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3884.423</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>38.59383999999999</v>
@@ -2581,20 +2692,25 @@
       <c r="M46" s="48" t="n">
         <v>39.98327</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>120.349</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>6992.35074</v>
+        <v>6992.350739999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>9179.960469999998</v>
+        <v>9179.96047</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>9912.798360000001</v>
+        <v>9912.798359999999</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>10194.18135</v>
@@ -2603,28 +2719,33 @@
         <v>14859.54176</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>15746.67402</v>
+        <v>15763.25379</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>19375.99493</v>
+        <v>19716.12363</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>18144.4358</v>
+        <v>18147.78583</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>24754.4549</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>38557.53198000001</v>
+        <v>38112.95102</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>17818.55346</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>17888.2422</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>39907.09</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>458.95803</v>
@@ -2654,16 +2775,21 @@
         <v>1854.84754</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1730.88875</v>
+        <v>1736.28724</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2377.64524</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2540.29394</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4205.453</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.042</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>21.14344</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0.602</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>458.91603</v>
@@ -2732,22 +2863,27 @@
         <v>1835.73273</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1730.56958</v>
+        <v>1735.96807</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2356.5018</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2519.1505</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4204.851</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>619.53931</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>680.9911599999999</v>
+        <v>680.99116</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>11513.37541</v>
@@ -2759,28 +2895,33 @@
         <v>907.3491</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>13094.5051</v>
+        <v>13094.80867</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1104.34211</v>
+        <v>1117.32014</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>13247.74691</v>
+        <v>13258.80981</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>2292.33573</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>10123.15132</v>
+        <v>10126.205</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2852.36352</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2861.26043</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3284.917</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>7.68361</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>15.23933</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>130.06695</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>383.39</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>596.61637</v>
@@ -2873,70 +3024,80 @@
         <v>1076.47008</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>845.86954</v>
+        <v>845.8695399999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>11734.50029</v>
+        <v>11734.80386</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1072.74246</v>
+        <v>1085.72049</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>13184.82617</v>
+        <v>13195.88907</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>2232.52224</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>9971.95234</v>
+        <v>9975.006019999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2722.29657</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2731.19348</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2901.527</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>6831.76946</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>8786.917039999998</v>
+        <v>8786.91704</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-945.3273099999999</v>
+        <v>-945.32731</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>9097.957130000001</v>
+        <v>9097.957129999999</v>
       </c>
       <c r="G55" s="47" t="n">
         <v>14681.66001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>5296.10906</v>
+        <v>5312.38526</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>19215.9364</v>
+        <v>19543.08707</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>6707.516189999999</v>
+        <v>6699.803319999999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>24316.96671</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>30165.26941</v>
+        <v>29723.03326</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>17343.83518</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>17567.27571</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>40827.626</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1636.1011</v>
@@ -2954,10 +3115,10 @@
         <v>3110.63957</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>3124.99246</v>
+        <v>3128.55047</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3849.78193</v>
+        <v>3894.26716</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>3755.94422</v>
@@ -2966,19 +3127,24 @@
         <v>4494.69761</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>8717.68571</v>
+        <v>8738.62665</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>5270.07959</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>5357.69446</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>8991.4</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>5195.668360000001</v>
+        <v>5195.66836</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>6911.12129</v>
@@ -2987,31 +3153,34 @@
         <v>-2971.13098</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>6983.45177</v>
+        <v>6983.451770000001</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>11571.02044</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2171.1166</v>
+        <v>2183.83479</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>15366.15447</v>
+        <v>15648.81991</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>2951.57197</v>
+        <v>2943.8591</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>19822.2691</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>21447.5837</v>
+        <v>20984.40661</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>12073.75559</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>12209.58125</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>31836.226</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>389</v>
@@ -3047,25 +3219,28 @@
         <v>477</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>575</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>666</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>